--- a/third.xlsx
+++ b/third.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89ac1f873686677b/Desktop/Proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC1048A6419D63B85ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E06477B-BFF2-4A4E-8517-C33271F94AC3}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC1048A6419D63B85ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7016B291-97BE-4C1B-BDF8-207C75D02E07}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,6 +80,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/third.xlsx
+++ b/third.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89ac1f873686677b/Desktop/Proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC1048A6419D63B85ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7016B291-97BE-4C1B-BDF8-207C75D02E07}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC1048A6419D63B85ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{920B92F1-EA6E-4CEB-9DDF-23ECFB314894}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,9 +351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/third.xlsx
+++ b/third.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89ac1f873686677b/Desktop/Proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC1048A6419D63B85ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{920B92F1-EA6E-4CEB-9DDF-23ECFB314894}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC1048A6419D63B85ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F07837B-EB53-47C4-BA02-FD09C3A97312}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>third</t>
+  </si>
+  <si>
+    <t>Rishav</t>
   </si>
 </sst>
 </file>
@@ -349,15 +352,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
